--- a/biology/Microbiologie/Clausilocolidae/Clausilocolidae.xlsx
+++ b/biology/Microbiologie/Clausilocolidae/Clausilocolidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clausilocolidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Astomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Clausilocola, composé de clausil-, peut-être par allusion au mollusque du genre Clausilia, et de -cola (du latin colo, « labourer, cultiver, habiter »), littéralement « habitant (d'un mollusque du genre) Clausilia », en référence au lieu de vie de ce cilié[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Clausilocola, composé de clausil-, peut-être par allusion au mollusque du genre Clausilia, et de -cola (du latin colo, « labourer, cultiver, habiter »), littéralement « habitant (d'un mollusque du genre) Clausilia », en référence au lieu de vie de ce cilié.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Clausilocolidae sont de taille moyenne (80 à 200 μm). Ils ont la forme d'une virgule[note 1]  ou d'une ellipsoïde aplatie et faiblement allongée. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. homogène), dense, avec un système sécant antérieur en forme de fer à cheval et à zone thigmotactique antérieure, diversement développée. Leur macronoyau est globuleux à ellipsoïde. Un micronoyau est présent. Les vacuoles contractile sont dispersées[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Clausilocolidae sont de taille moyenne (80 à 200 μm). Ils ont la forme d'une virgule[note 1]  ou d'une ellipsoïde aplatie et faiblement allongée. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. homogène), dense, avec un système sécant antérieur en forme de fer à cheval et à zone thigmotactique antérieure, diversement développée. Leur macronoyau est globuleux à ellipsoïde. Un micronoyau est présent. Les vacuoles contractile sont dispersées.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Clausilocolidae vivent dans des habitats terrestres, dans le tube digestif de mollusques gastéropodes et d'annélides oligochètes africains[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Clausilocolidae vivent dans des habitats terrestres, dans le tube digestif de mollusques gastéropodes et d'annélides oligochètes africains,.
 </t>
         </is>
       </c>
@@ -604,14 +622,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 juillet 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 juillet 2023) :
 Clausilocola Lom, 1959 genre type
 Espèce type : Clausilocola apostropha Lom, 1959
 Haptophryopsis de Puytorac, 1971
 Paraclausilocola Fokam, Ngassam, Strüder-Kypke &amp; Lynn, 2011
-Selon Lynn (2008)[2] :
+Selon Lynn (2008) :
 Clausilocola Lom, 1959
 Haptophryopsis de Puytorac, 1971
 Proclausilocola Lom, 1959</t>
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Clausilocolidae de Puytorac, in Corliss, 1979[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Clausilocolidae de Puytorac, in Corliss, 1979.
 </t>
         </is>
       </c>
